--- a/csv/model/market share limits/formula_market share limits_ON.xlsx
+++ b/csv/model/market share limits/formula_market share limits_ON.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51CAC21-1608-4690-89DD-9823A5439D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA961917-F0D0-4D2F-B6C1-85C083D8748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54F29BDF-F520-4BFD-9C0C-E55AD284BA8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C45E0BAB-57C3-4DEE-8A66-D217CE3FBBDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="288">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -405,12 +405,6 @@
   </si>
   <si>
     <t>Thin slab casting oil</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.ON.Iron and Steel.Iron Process Gas.Steam</t>
-  </si>
-  <si>
-    <t>Cogenerator Iron Process Gas Retro</t>
   </si>
   <si>
     <t>CIMS.CAN.ON.Iron and Steel.Reheating.Reheators</t>
@@ -1276,8 +1270,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFD1A5B-0419-4072-B0BE-76FD102F4BE0}">
-  <dimension ref="A1:X264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297BBCF6-6C0C-4662-A27B-0DB53EF7153A}">
+  <dimension ref="A1:X263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X264"/>
@@ -5921,10 +5915,10 @@
         <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -5933,42 +5927,42 @@
         <v>20</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -5980,10 +5974,10 @@
         <v>117</v>
       </c>
       <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
         <v>126</v>
-      </c>
-      <c r="F81" t="s">
-        <v>127</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -5992,42 +5986,42 @@
         <v>20</v>
       </c>
       <c r="M81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="N81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="O81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="P81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="R81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="S81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="T81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="U81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="V81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="W81">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -6039,54 +6033,54 @@
         <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F82" t="s">
         <v>128</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L82" t="s">
         <v>20</v>
       </c>
       <c r="M82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W82">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -6101,7 +6095,7 @@
         <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -6145,7 +6139,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -6160,7 +6154,7 @@
         <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -6204,7 +6198,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -6216,10 +6210,10 @@
         <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -6228,42 +6222,42 @@
         <v>20</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q85">
-        <v>9.9999999999989008E-4</v>
+        <v>0.3</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -6278,7 +6272,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -6322,7 +6316,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -6334,10 +6328,10 @@
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -6381,7 +6375,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -6396,7 +6390,7 @@
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
@@ -6440,7 +6434,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -6455,7 +6449,7 @@
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -6499,7 +6493,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -6511,10 +6505,10 @@
         <v>117</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -6558,7 +6552,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -6573,7 +6567,7 @@
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -6617,7 +6611,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -6632,7 +6626,7 @@
         <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -6676,7 +6670,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -6688,10 +6682,10 @@
         <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
@@ -6735,7 +6729,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -6750,7 +6744,7 @@
         <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -6794,7 +6788,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -6809,7 +6803,7 @@
         <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -6853,7 +6847,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -6865,10 +6859,10 @@
         <v>117</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -6912,7 +6906,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -6924,7 +6918,7 @@
         <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>35</v>
@@ -6971,7 +6965,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -6983,10 +6977,10 @@
         <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -7030,7 +7024,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -7042,7 +7036,7 @@
         <v>117</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
         <v>38</v>
@@ -7089,7 +7083,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -7101,10 +7095,10 @@
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -7148,7 +7142,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -7160,7 +7154,7 @@
         <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
         <v>41</v>
@@ -7207,7 +7201,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -7219,10 +7213,10 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -7266,7 +7260,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -7278,10 +7272,10 @@
         <v>117</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -7290,42 +7284,42 @@
         <v>20</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="N103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="O103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="P103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="Q103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="R103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="S103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="T103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="U103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="V103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
       <c r="W103">
-        <v>0.3</v>
+        <v>0.145455</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -7343,48 +7337,48 @@
         <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L104" t="s">
         <v>20</v>
       </c>
       <c r="M104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W104">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -7399,51 +7393,51 @@
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L105" t="s">
         <v>20</v>
       </c>
       <c r="M105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="N105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="O105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="P105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="Q105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="R105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="S105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="T105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="U105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="V105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="W105">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -7458,51 +7452,51 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L106" t="s">
         <v>20</v>
       </c>
       <c r="M106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="N106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="O106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Q106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="R106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="S106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="T106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="U106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="V106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="W106">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -7517,51 +7511,51 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L107" t="s">
         <v>20</v>
       </c>
       <c r="M107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="N107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="O107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="P107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="Q107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="R107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="S107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="T107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="U107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="V107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="W107">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -7576,51 +7570,51 @@
         <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L108" t="s">
         <v>20</v>
       </c>
       <c r="M108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W108">
-        <v>6.1817999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -7632,54 +7626,54 @@
         <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L109" t="s">
         <v>20</v>
       </c>
       <c r="M109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="N109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="O109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="P109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="Q109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="R109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="S109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="T109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="U109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="V109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
       <c r="W109">
-        <v>0.05</v>
+        <v>0.145455</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -7697,48 +7691,48 @@
         <v>115</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L110" t="s">
         <v>20</v>
       </c>
       <c r="M110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W110">
-        <v>0.145455</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -7753,51 +7747,51 @@
         <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L111" t="s">
         <v>20</v>
       </c>
       <c r="M111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="N111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="O111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="P111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="Q111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="R111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="S111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="T111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="U111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="V111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
       <c r="W111">
-        <v>0.14000000000000001</v>
+        <v>0.24727299999999999</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -7815,48 +7809,48 @@
         <v>49</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L112" t="s">
         <v>20</v>
       </c>
       <c r="M112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="N112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="O112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Q112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="R112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="S112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="T112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="U112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="V112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
       <c r="W112">
-        <v>0.24727299999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -7871,51 +7865,51 @@
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L113" t="s">
         <v>20</v>
       </c>
       <c r="M113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="N113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="O113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="P113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="Q113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="R113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="S113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="T113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="U113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="V113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
       <c r="W113">
-        <v>0.24</v>
+        <v>6.1817999999999998E-2</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -7933,107 +7927,107 @@
         <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L114" t="s">
         <v>20</v>
       </c>
       <c r="M114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="N114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="O114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="P114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="Q114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="R114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="S114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="T114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="U114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="V114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
       <c r="W114">
-        <v>6.1817999999999998E-2</v>
+        <v>6.1816999999999997E-2</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
         <v>148</v>
       </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>117</v>
-      </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L115" t="s">
         <v>20</v>
       </c>
       <c r="M115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="N115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="O115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="P115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="Q115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="R115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="S115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="T115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="U115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="V115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="W115">
-        <v>6.1816999999999997E-2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -8042,16 +8036,16 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L116" t="s">
         <v>20</v>
@@ -8092,7 +8086,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -8101,10 +8095,10 @@
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E117" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F117" t="s">
         <v>155</v>
@@ -8160,10 +8154,10 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
         <v>157</v>
@@ -8219,57 +8213,57 @@
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L119" t="s">
         <v>20</v>
       </c>
       <c r="M119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="P119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Q119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="R119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="S119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="U119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="V119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W119">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -8278,13 +8272,13 @@
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
         <v>19</v>
@@ -8328,7 +8322,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -8337,13 +8331,13 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -8387,7 +8381,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -8396,13 +8390,13 @@
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
         <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G122" t="s">
         <v>19</v>
@@ -8446,7 +8440,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -8455,13 +8449,13 @@
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>19</v>
@@ -8505,7 +8499,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -8514,10 +8508,10 @@
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
         <v>31</v>
@@ -8564,7 +8558,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -8573,13 +8567,13 @@
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -8623,7 +8617,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -8632,10 +8626,10 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
@@ -8682,7 +8676,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -8691,13 +8685,13 @@
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
@@ -8741,7 +8735,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -8750,10 +8744,10 @@
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
         <v>38</v>
@@ -8800,7 +8794,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -8809,13 +8803,13 @@
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -8859,7 +8853,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -8868,10 +8862,10 @@
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
         <v>41</v>
@@ -8918,7 +8912,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -8927,13 +8921,13 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
         <v>19</v>
@@ -8942,42 +8936,42 @@
         <v>20</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="N131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Q131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="S131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="T131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="U131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="V131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -8986,13 +8980,13 @@
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -9036,22 +9030,22 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
         <v>171</v>
       </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>150</v>
-      </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -9060,42 +9054,42 @@
         <v>20</v>
       </c>
       <c r="M133">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O133">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P133">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>0.15</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="S133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="T133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="V133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="W133">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -9104,13 +9098,13 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G134" t="s">
         <v>19</v>
@@ -9154,7 +9148,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -9163,13 +9157,13 @@
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E135" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G135" t="s">
         <v>19</v>
@@ -9213,7 +9207,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -9222,13 +9216,13 @@
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E136" t="s">
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G136" t="s">
         <v>19</v>
@@ -9272,7 +9266,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -9281,13 +9275,13 @@
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E137" t="s">
         <v>53</v>
       </c>
       <c r="F137" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -9296,42 +9290,42 @@
         <v>20</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q137">
-        <v>9.9999999999989008E-4</v>
+        <v>0.2</v>
       </c>
       <c r="R137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="U137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="V137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -9340,57 +9334,57 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E138" t="s">
         <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="G138" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L138" t="s">
         <v>20</v>
       </c>
       <c r="M138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="N138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="P138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Q138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="R138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="U138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="V138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="W138">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -9399,57 +9393,57 @@
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E139" t="s">
         <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L139" t="s">
         <v>20</v>
       </c>
       <c r="M139">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O139">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P139">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>0.02</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="S139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="U139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="V139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="W139">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -9458,13 +9452,13 @@
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E140" t="s">
         <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G140" t="s">
         <v>19</v>
@@ -9473,42 +9467,42 @@
         <v>20</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P140">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q140">
-        <v>9.9999999999989008E-4</v>
+        <v>0.1</v>
       </c>
       <c r="R140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -9517,13 +9511,13 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E141" t="s">
         <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G141" t="s">
         <v>19</v>
@@ -9576,13 +9570,13 @@
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F142" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
         <v>19</v>
@@ -9591,42 +9585,42 @@
         <v>20</v>
       </c>
       <c r="M142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -9635,13 +9629,13 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E143" t="s">
         <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
         <v>19</v>
@@ -9685,7 +9679,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -9694,13 +9688,13 @@
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E144" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G144" t="s">
         <v>19</v>
@@ -9744,7 +9738,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -9753,13 +9747,13 @@
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E145" t="s">
         <v>24</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G145" t="s">
         <v>19</v>
@@ -9803,7 +9797,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -9812,13 +9806,13 @@
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>19</v>
@@ -9862,7 +9856,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -9871,13 +9865,13 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E147" t="s">
         <v>28</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -9921,7 +9915,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -9930,13 +9924,13 @@
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E148" t="s">
         <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>19</v>
@@ -9980,7 +9974,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -9989,13 +9983,13 @@
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>19</v>
@@ -10039,7 +10033,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -10048,13 +10042,13 @@
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E150" t="s">
         <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>19</v>
@@ -10098,7 +10092,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -10107,13 +10101,13 @@
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
@@ -10157,7 +10151,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -10166,13 +10160,13 @@
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
@@ -10216,7 +10210,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -10225,10 +10219,10 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -10275,7 +10269,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -10284,13 +10278,13 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
@@ -10334,7 +10328,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -10343,10 +10337,10 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
         <v>38</v>
@@ -10393,7 +10387,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -10402,13 +10396,13 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>19</v>
@@ -10452,7 +10446,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -10461,10 +10455,10 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
         <v>41</v>
@@ -10511,22 +10505,22 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>189</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" t="s">
+        <v>141</v>
+      </c>
+      <c r="F158" t="s">
         <v>190</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>173</v>
-      </c>
-      <c r="E158" t="s">
-        <v>33</v>
-      </c>
-      <c r="F158" t="s">
-        <v>41</v>
       </c>
       <c r="G158" t="s">
         <v>19</v>
@@ -10579,10 +10573,10 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E159" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
         <v>192</v>
@@ -10594,42 +10588,42 @@
         <v>20</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="N159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="P159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="Q159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="R159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="S159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="T159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="U159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="V159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="W159">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -10638,16 +10632,16 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E160" t="s">
         <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G160" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L160" t="s">
         <v>20</v>
@@ -10697,16 +10691,16 @@
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L161" t="s">
         <v>20</v>
@@ -10747,7 +10741,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -10756,7 +10750,7 @@
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E162" t="s">
         <v>48</v>
@@ -10765,7 +10759,7 @@
         <v>115</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L162" t="s">
         <v>20</v>
@@ -10806,66 +10800,66 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>194</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
         <v>195</v>
       </c>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" t="s">
-        <v>173</v>
-      </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="F163" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L163" t="s">
         <v>20</v>
       </c>
       <c r="M163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="N163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="O163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="P163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Q163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="R163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="S163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="T163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="U163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="V163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="W163">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -10874,13 +10868,13 @@
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E164" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F164" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
@@ -10924,7 +10918,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -10933,14 +10927,14 @@
         <v>15</v>
       </c>
       <c r="D165" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" t="s">
+        <v>202</v>
+      </c>
+      <c r="F165" t="s">
         <v>197</v>
       </c>
-      <c r="E165" t="s">
-        <v>201</v>
-      </c>
-      <c r="F165" t="s">
-        <v>202</v>
-      </c>
       <c r="G165" t="s">
         <v>19</v>
       </c>
@@ -10948,37 +10942,37 @@
         <v>20</v>
       </c>
       <c r="M165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="N165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="O165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="P165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="Q165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="R165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="S165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="T165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="U165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="V165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="W165">
-        <v>0.05</v>
+        <v>1.6667000000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
@@ -10992,13 +10986,13 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E166" t="s">
         <v>204</v>
       </c>
       <c r="F166" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -11007,42 +11001,42 @@
         <v>20</v>
       </c>
       <c r="M166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W166">
-        <v>1.6667000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -11051,13 +11045,13 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E167" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G167" t="s">
         <v>19</v>
@@ -11066,101 +11060,101 @@
         <v>20</v>
       </c>
       <c r="M167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="N167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="O167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="P167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="Q167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="S167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="T167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="U167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="V167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="W167">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>195</v>
+      </c>
+      <c r="E168" t="s">
+        <v>207</v>
+      </c>
+      <c r="F168" t="s">
         <v>208</v>
       </c>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" t="s">
-        <v>197</v>
-      </c>
-      <c r="E168" t="s">
-        <v>209</v>
-      </c>
-      <c r="F168" t="s">
-        <v>210</v>
-      </c>
       <c r="G168" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L168" t="s">
         <v>20</v>
       </c>
       <c r="M168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="N168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="P168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="R168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="S168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="T168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="U168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="V168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="W168">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -11169,57 +11163,57 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E169" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F169" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L169" t="s">
         <v>20</v>
       </c>
       <c r="M169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="N169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="O169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="P169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="Q169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="R169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="S169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="T169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="U169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="V169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="W169">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -11228,14 +11222,14 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E170" t="s">
+        <v>210</v>
+      </c>
+      <c r="F170" t="s">
         <v>212</v>
       </c>
-      <c r="F170" t="s">
-        <v>213</v>
-      </c>
       <c r="G170" t="s">
         <v>19</v>
       </c>
@@ -11243,42 +11237,42 @@
         <v>20</v>
       </c>
       <c r="M170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="O170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="Q170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="R170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="S170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="T170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="U170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="V170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="W170">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -11287,57 +11281,57 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E171" t="s">
+        <v>210</v>
+      </c>
+      <c r="F171" t="s">
         <v>212</v>
       </c>
-      <c r="F171" t="s">
-        <v>214</v>
-      </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L171" t="s">
         <v>20</v>
       </c>
       <c r="M171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W171">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -11346,57 +11340,57 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E172" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
         <v>214</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L172" t="s">
         <v>20</v>
       </c>
       <c r="M172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="N172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="O172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="P172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="R172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="S172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="U172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="V172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="W172">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -11405,13 +11399,13 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E173" t="s">
         <v>53</v>
       </c>
       <c r="F173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G173" t="s">
         <v>19</v>
@@ -11420,42 +11414,42 @@
         <v>20</v>
       </c>
       <c r="M173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="N173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="S173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="T173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="V173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="W173">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -11464,13 +11458,13 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E174" t="s">
         <v>53</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G174" t="s">
         <v>19</v>
@@ -11514,7 +11508,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -11523,13 +11517,13 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E175" t="s">
         <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G175" t="s">
         <v>19</v>
@@ -11573,7 +11567,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -11582,13 +11576,13 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E176" t="s">
         <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G176" t="s">
         <v>19</v>
@@ -11632,7 +11626,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -11641,13 +11635,13 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E177" t="s">
         <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="G177" t="s">
         <v>19</v>
@@ -11691,7 +11685,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -11700,13 +11694,13 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E178" t="s">
         <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G178" t="s">
         <v>19</v>
@@ -11750,7 +11744,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -11759,13 +11753,13 @@
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E179" t="s">
         <v>53</v>
       </c>
       <c r="F179" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G179" t="s">
         <v>19</v>
@@ -11809,7 +11803,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -11818,13 +11812,13 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E180" t="s">
         <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G180" t="s">
         <v>19</v>
@@ -11868,7 +11862,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -11877,13 +11871,13 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E181" t="s">
         <v>53</v>
       </c>
       <c r="F181" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -11927,7 +11921,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -11936,13 +11930,13 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F182" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
         <v>19</v>
@@ -11951,42 +11945,42 @@
         <v>20</v>
       </c>
       <c r="M182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W182">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -11995,13 +11989,13 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E183" t="s">
         <v>17</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
@@ -12045,7 +12039,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -12054,13 +12048,13 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E184" t="s">
         <v>17</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G184" t="s">
         <v>19</v>
@@ -12104,7 +12098,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -12113,13 +12107,13 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G185" t="s">
         <v>19</v>
@@ -12163,7 +12157,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -12172,13 +12166,13 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E186" t="s">
         <v>24</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G186" t="s">
         <v>19</v>
@@ -12222,7 +12216,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -12231,13 +12225,13 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>19</v>
@@ -12281,7 +12275,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -12290,13 +12284,13 @@
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E188" t="s">
         <v>28</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
         <v>19</v>
@@ -12340,7 +12334,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -12349,13 +12343,13 @@
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E189" t="s">
         <v>28</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>19</v>
@@ -12399,7 +12393,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -12408,13 +12402,13 @@
         <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E190" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
         <v>19</v>
@@ -12458,7 +12452,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -12467,13 +12461,13 @@
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
         <v>19</v>
@@ -12517,7 +12511,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -12526,13 +12520,13 @@
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E192" t="s">
         <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
         <v>19</v>
@@ -12576,7 +12570,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -12585,13 +12579,13 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>19</v>
@@ -12635,7 +12629,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -12644,10 +12638,10 @@
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
         <v>35</v>
@@ -12694,7 +12688,7 @@
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -12703,13 +12697,13 @@
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E195" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
         <v>19</v>
@@ -12753,7 +12747,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -12762,10 +12756,10 @@
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F196" t="s">
         <v>38</v>
@@ -12812,7 +12806,7 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -12821,13 +12815,13 @@
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
         <v>19</v>
@@ -12871,7 +12865,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -12880,10 +12874,10 @@
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E198" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F198" t="s">
         <v>41</v>
@@ -12930,23 +12924,23 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>230</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>195</v>
+      </c>
+      <c r="E199" t="s">
+        <v>141</v>
+      </c>
+      <c r="F199" t="s">
         <v>231</v>
       </c>
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" t="s">
-        <v>197</v>
-      </c>
-      <c r="E199" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" t="s">
-        <v>41</v>
-      </c>
       <c r="G199" t="s">
         <v>19</v>
       </c>
@@ -12954,42 +12948,42 @@
         <v>20</v>
       </c>
       <c r="M199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="N199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="O199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="P199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="Q199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="S199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="T199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="U199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="V199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="W199">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -12998,57 +12992,57 @@
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E200" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F200" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L200" t="s">
         <v>20</v>
       </c>
       <c r="M200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="O200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="P200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="Q200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="R200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="S200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="T200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="U200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="V200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="W200">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -13057,57 +13051,57 @@
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E201" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F201" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L201" t="s">
         <v>20</v>
       </c>
       <c r="M201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="N201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="O201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="P201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="Q201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="R201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="S201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="T201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="U201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="V201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="W201">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -13116,52 +13110,52 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E202" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F202" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G202" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L202" t="s">
         <v>20</v>
       </c>
       <c r="M202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W202">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
@@ -13175,57 +13169,57 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L203" t="s">
         <v>20</v>
       </c>
       <c r="M203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W203">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -13234,57 +13228,57 @@
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E204" t="s">
         <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L204" t="s">
         <v>20</v>
       </c>
       <c r="M204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W204">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -13293,57 +13287,57 @@
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L205" t="s">
         <v>20</v>
       </c>
       <c r="M205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="N205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="O205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="P205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="Q205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="R205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="S205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="T205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="U205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="V205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="W205">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -13352,52 +13346,52 @@
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E206" t="s">
         <v>44</v>
       </c>
       <c r="F206" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G206" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L206" t="s">
         <v>20</v>
       </c>
       <c r="M206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
@@ -13411,57 +13405,70 @@
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E207" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L207" t="s">
         <v>20</v>
       </c>
       <c r="M207">
-        <v>0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N207">
-        <v>0.5</v>
+        <f ca="1">M207</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O207">
-        <v>0.5</v>
+        <f t="shared" ref="O207:W207" ca="1" si="0">N207</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W207">
-        <v>0.5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X207" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -13470,70 +13477,57 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E208" t="s">
         <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G208" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L208" t="s">
         <v>20</v>
       </c>
       <c r="M208">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N208">
-        <f ca="1">M208</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O208">
-        <f t="shared" ref="O208:W208" ca="1" si="0">N208</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W208">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X208" t="s">
-        <v>238</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -13542,57 +13536,57 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E209" t="s">
         <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L209" t="s">
         <v>20</v>
       </c>
       <c r="M209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="N209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="O209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="P209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="Q209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="R209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="S209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="T209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="U209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="V209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="W209">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -13601,7 +13595,7 @@
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E210" t="s">
         <v>48</v>
@@ -13610,48 +13604,48 @@
         <v>49</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L210" t="s">
         <v>20</v>
       </c>
       <c r="M210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="S210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="W210">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -13660,57 +13654,57 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L211" t="s">
         <v>20</v>
       </c>
       <c r="M211">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N211">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O211">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -13719,57 +13713,57 @@
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E212" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="F212" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L212" t="s">
         <v>20</v>
       </c>
       <c r="M212">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N212">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O212">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -13778,13 +13772,13 @@
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E213" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F213" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G213" t="s">
         <v>46</v>
@@ -13793,42 +13787,42 @@
         <v>20</v>
       </c>
       <c r="M213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W213">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -13837,57 +13831,57 @@
         <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E214" t="s">
+        <v>244</v>
+      </c>
+      <c r="F214" t="s">
         <v>246</v>
       </c>
-      <c r="F214" t="s">
-        <v>247</v>
-      </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="N214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="O214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="P214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="R214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="S214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="T214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="U214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="W214">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -13896,13 +13890,13 @@
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E215" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G215" t="s">
         <v>19</v>
@@ -13911,57 +13905,57 @@
         <v>20</v>
       </c>
       <c r="M215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="V215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="W215">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E216" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F216" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G216" t="s">
         <v>19</v>
@@ -13970,42 +13964,52 @@
         <v>20</v>
       </c>
       <c r="M216">
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N216">
-        <v>0.01</v>
+        <f t="shared" ref="N216:W231" ca="1" si="1">M216</f>
+        <v>2.7E-2</v>
       </c>
       <c r="O216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W216">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -14014,13 +14018,13 @@
         <v>15</v>
       </c>
       <c r="D217" t="s">
+        <v>249</v>
+      </c>
+      <c r="E217" t="s">
+        <v>250</v>
+      </c>
+      <c r="F217" t="s">
         <v>251</v>
-      </c>
-      <c r="E217" t="s">
-        <v>252</v>
-      </c>
-      <c r="F217" t="s">
-        <v>253</v>
       </c>
       <c r="G217" t="s">
         <v>19</v>
@@ -14032,7 +14036,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="N217">
-        <f t="shared" ref="N217:W232" ca="1" si="1">M217</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.7E-2</v>
       </c>
       <c r="O217">
@@ -14074,7 +14078,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -14083,13 +14087,13 @@
         <v>15</v>
       </c>
       <c r="D218" t="s">
+        <v>249</v>
+      </c>
+      <c r="E218" t="s">
+        <v>250</v>
+      </c>
+      <c r="F218" t="s">
         <v>251</v>
-      </c>
-      <c r="E218" t="s">
-        <v>252</v>
-      </c>
-      <c r="F218" t="s">
-        <v>253</v>
       </c>
       <c r="G218" t="s">
         <v>19</v>
@@ -14143,7 +14147,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -14152,14 +14156,14 @@
         <v>15</v>
       </c>
       <c r="D219" t="s">
+        <v>249</v>
+      </c>
+      <c r="E219" t="s">
+        <v>250</v>
+      </c>
+      <c r="F219" t="s">
         <v>251</v>
       </c>
-      <c r="E219" t="s">
-        <v>252</v>
-      </c>
-      <c r="F219" t="s">
-        <v>253</v>
-      </c>
       <c r="G219" t="s">
         <v>19</v>
       </c>
@@ -14167,52 +14171,52 @@
         <v>20</v>
       </c>
       <c r="M219">
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="N219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="O219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="P219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="Q219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="R219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="S219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="T219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="U219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="V219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
       <c r="W219">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -14221,14 +14225,14 @@
         <v>15</v>
       </c>
       <c r="D220" t="s">
+        <v>249</v>
+      </c>
+      <c r="E220" t="s">
+        <v>250</v>
+      </c>
+      <c r="F220" t="s">
         <v>251</v>
       </c>
-      <c r="E220" t="s">
-        <v>252</v>
-      </c>
-      <c r="F220" t="s">
-        <v>253</v>
-      </c>
       <c r="G220" t="s">
         <v>19</v>
       </c>
@@ -14236,52 +14240,52 @@
         <v>20</v>
       </c>
       <c r="M220">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="P220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="Q220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="R220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="S220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="T220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="U220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="V220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="W220">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -14290,13 +14294,13 @@
         <v>15</v>
       </c>
       <c r="D221" t="s">
+        <v>249</v>
+      </c>
+      <c r="E221" t="s">
+        <v>250</v>
+      </c>
+      <c r="F221" t="s">
         <v>251</v>
-      </c>
-      <c r="E221" t="s">
-        <v>252</v>
-      </c>
-      <c r="F221" t="s">
-        <v>253</v>
       </c>
       <c r="G221" t="s">
         <v>19</v>
@@ -14350,7 +14354,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -14359,13 +14363,13 @@
         <v>15</v>
       </c>
       <c r="D222" t="s">
+        <v>249</v>
+      </c>
+      <c r="E222" t="s">
+        <v>250</v>
+      </c>
+      <c r="F222" t="s">
         <v>251</v>
-      </c>
-      <c r="E222" t="s">
-        <v>252</v>
-      </c>
-      <c r="F222" t="s">
-        <v>253</v>
       </c>
       <c r="G222" t="s">
         <v>19</v>
@@ -14419,7 +14423,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -14428,13 +14432,13 @@
         <v>15</v>
       </c>
       <c r="D223" t="s">
+        <v>249</v>
+      </c>
+      <c r="E223" t="s">
+        <v>250</v>
+      </c>
+      <c r="F223" t="s">
         <v>251</v>
-      </c>
-      <c r="E223" t="s">
-        <v>252</v>
-      </c>
-      <c r="F223" t="s">
-        <v>253</v>
       </c>
       <c r="G223" t="s">
         <v>19</v>
@@ -14488,7 +14492,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -14497,13 +14501,13 @@
         <v>15</v>
       </c>
       <c r="D224" t="s">
+        <v>249</v>
+      </c>
+      <c r="E224" t="s">
+        <v>250</v>
+      </c>
+      <c r="F224" t="s">
         <v>251</v>
-      </c>
-      <c r="E224" t="s">
-        <v>252</v>
-      </c>
-      <c r="F224" t="s">
-        <v>253</v>
       </c>
       <c r="G224" t="s">
         <v>19</v>
@@ -14555,9 +14559,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -14566,13 +14570,13 @@
         <v>15</v>
       </c>
       <c r="D225" t="s">
+        <v>249</v>
+      </c>
+      <c r="E225" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" t="s">
         <v>251</v>
-      </c>
-      <c r="E225" t="s">
-        <v>252</v>
-      </c>
-      <c r="F225" t="s">
-        <v>253</v>
       </c>
       <c r="G225" t="s">
         <v>19</v>
@@ -14624,9 +14628,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -14635,13 +14639,13 @@
         <v>15</v>
       </c>
       <c r="D226" t="s">
+        <v>249</v>
+      </c>
+      <c r="E226" t="s">
+        <v>250</v>
+      </c>
+      <c r="F226" t="s">
         <v>251</v>
-      </c>
-      <c r="E226" t="s">
-        <v>252</v>
-      </c>
-      <c r="F226" t="s">
-        <v>253</v>
       </c>
       <c r="G226" t="s">
         <v>19</v>
@@ -14693,9 +14697,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -14704,13 +14708,13 @@
         <v>15</v>
       </c>
       <c r="D227" t="s">
+        <v>249</v>
+      </c>
+      <c r="E227" t="s">
+        <v>250</v>
+      </c>
+      <c r="F227" t="s">
         <v>251</v>
-      </c>
-      <c r="E227" t="s">
-        <v>252</v>
-      </c>
-      <c r="F227" t="s">
-        <v>253</v>
       </c>
       <c r="G227" t="s">
         <v>19</v>
@@ -14762,9 +14766,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -14773,67 +14777,67 @@
         <v>15</v>
       </c>
       <c r="D228" t="s">
+        <v>249</v>
+      </c>
+      <c r="E228" t="s">
+        <v>250</v>
+      </c>
+      <c r="F228" t="s">
         <v>251</v>
       </c>
-      <c r="E228" t="s">
-        <v>252</v>
-      </c>
-      <c r="F228" t="s">
-        <v>253</v>
-      </c>
       <c r="G228" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L228" t="s">
         <v>20</v>
       </c>
       <c r="M228">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="P228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="R228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="S228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W228">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -14842,13 +14846,13 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
+        <v>249</v>
+      </c>
+      <c r="E229" t="s">
+        <v>250</v>
+      </c>
+      <c r="F229" t="s">
         <v>251</v>
-      </c>
-      <c r="E229" t="s">
-        <v>252</v>
-      </c>
-      <c r="F229" t="s">
-        <v>253</v>
       </c>
       <c r="G229" t="s">
         <v>46</v>
@@ -14900,9 +14904,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -14911,13 +14915,13 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
+        <v>249</v>
+      </c>
+      <c r="E230" t="s">
+        <v>250</v>
+      </c>
+      <c r="F230" t="s">
         <v>251</v>
-      </c>
-      <c r="E230" t="s">
-        <v>252</v>
-      </c>
-      <c r="F230" t="s">
-        <v>253</v>
       </c>
       <c r="G230" t="s">
         <v>46</v>
@@ -14969,9 +14973,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -14980,13 +14984,13 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
+        <v>249</v>
+      </c>
+      <c r="E231" t="s">
+        <v>250</v>
+      </c>
+      <c r="F231" t="s">
         <v>251</v>
-      </c>
-      <c r="E231" t="s">
-        <v>252</v>
-      </c>
-      <c r="F231" t="s">
-        <v>253</v>
       </c>
       <c r="G231" t="s">
         <v>46</v>
@@ -15038,9 +15042,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -15049,13 +15053,13 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
+        <v>249</v>
+      </c>
+      <c r="E232" t="s">
+        <v>250</v>
+      </c>
+      <c r="F232" t="s">
         <v>251</v>
-      </c>
-      <c r="E232" t="s">
-        <v>252</v>
-      </c>
-      <c r="F232" t="s">
-        <v>253</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -15067,49 +15071,49 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="N232:W240" ca="1" si="2">M232</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="R232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="S232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="T232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="U232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="V232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="W232">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -15118,13 +15122,13 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>249</v>
+      </c>
+      <c r="E233" t="s">
+        <v>250</v>
+      </c>
+      <c r="F233" t="s">
         <v>251</v>
-      </c>
-      <c r="E233" t="s">
-        <v>252</v>
-      </c>
-      <c r="F233" t="s">
-        <v>253</v>
       </c>
       <c r="G233" t="s">
         <v>46</v>
@@ -15136,7 +15140,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N233">
-        <f t="shared" ref="N233:W241" ca="1" si="2">M233</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O233">
@@ -15176,9 +15180,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -15187,13 +15191,13 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
+        <v>249</v>
+      </c>
+      <c r="E234" t="s">
+        <v>250</v>
+      </c>
+      <c r="F234" t="s">
         <v>251</v>
-      </c>
-      <c r="E234" t="s">
-        <v>252</v>
-      </c>
-      <c r="F234" t="s">
-        <v>253</v>
       </c>
       <c r="G234" t="s">
         <v>46</v>
@@ -15245,9 +15249,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -15256,13 +15260,13 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
+        <v>249</v>
+      </c>
+      <c r="E235" t="s">
+        <v>250</v>
+      </c>
+      <c r="F235" t="s">
         <v>251</v>
-      </c>
-      <c r="E235" t="s">
-        <v>252</v>
-      </c>
-      <c r="F235" t="s">
-        <v>253</v>
       </c>
       <c r="G235" t="s">
         <v>46</v>
@@ -15314,9 +15318,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -15325,13 +15329,13 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>249</v>
+      </c>
+      <c r="E236" t="s">
+        <v>250</v>
+      </c>
+      <c r="F236" t="s">
         <v>251</v>
-      </c>
-      <c r="E236" t="s">
-        <v>252</v>
-      </c>
-      <c r="F236" t="s">
-        <v>253</v>
       </c>
       <c r="G236" t="s">
         <v>46</v>
@@ -15383,9 +15387,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -15394,13 +15398,13 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
+        <v>249</v>
+      </c>
+      <c r="E237" t="s">
+        <v>250</v>
+      </c>
+      <c r="F237" t="s">
         <v>251</v>
-      </c>
-      <c r="E237" t="s">
-        <v>252</v>
-      </c>
-      <c r="F237" t="s">
-        <v>253</v>
       </c>
       <c r="G237" t="s">
         <v>46</v>
@@ -15452,9 +15456,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -15463,13 +15467,13 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
+        <v>249</v>
+      </c>
+      <c r="E238" t="s">
+        <v>250</v>
+      </c>
+      <c r="F238" t="s">
         <v>251</v>
-      </c>
-      <c r="E238" t="s">
-        <v>252</v>
-      </c>
-      <c r="F238" t="s">
-        <v>253</v>
       </c>
       <c r="G238" t="s">
         <v>46</v>
@@ -15521,9 +15525,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -15532,13 +15536,13 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>249</v>
+      </c>
+      <c r="E239" t="s">
+        <v>250</v>
+      </c>
+      <c r="F239" t="s">
         <v>251</v>
-      </c>
-      <c r="E239" t="s">
-        <v>252</v>
-      </c>
-      <c r="F239" t="s">
-        <v>253</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
@@ -15550,7 +15554,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N239">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">M239</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O239">
@@ -15590,78 +15594,81 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>263</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
         <v>264</v>
       </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>251</v>
-      </c>
       <c r="E240" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F240" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L240" t="s">
         <v>20</v>
       </c>
       <c r="M240">
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="N240">
         <f ca="1">M240</f>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="O240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="P240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="Q240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="R240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="S240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="T240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="U240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="V240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="W240">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
+      </c>
+      <c r="X240" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -15670,13 +15677,13 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E241" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F241" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G241" t="s">
         <v>19</v>
@@ -15685,55 +15692,42 @@
         <v>20</v>
       </c>
       <c r="M241">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="N241">
-        <f ca="1">M241</f>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="O241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="P241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="Q241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="R241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="S241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="T241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="U241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="V241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="W241">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="X241" t="s">
-        <v>238</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -15742,13 +15736,13 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E242" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F242" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G242" t="s">
         <v>19</v>
@@ -15757,57 +15751,60 @@
         <v>20</v>
       </c>
       <c r="M242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="N242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="O242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="P242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="Q242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="R242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="S242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="T242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="U242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="V242">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="W242">
-        <v>0.95</v>
+        <v>0.01</v>
+      </c>
+      <c r="X242" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243" t="s">
         <v>273</v>
       </c>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="F243" t="s">
         <v>274</v>
-      </c>
-      <c r="E243" t="s">
-        <v>275</v>
-      </c>
-      <c r="F243" t="s">
-        <v>276</v>
       </c>
       <c r="G243" t="s">
         <v>19</v>
@@ -15849,12 +15846,12 @@
         <v>0.01</v>
       </c>
       <c r="X243" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -15863,13 +15860,13 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E244" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F244" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G244" t="s">
         <v>19</v>
@@ -15911,12 +15908,12 @@
         <v>0.01</v>
       </c>
       <c r="X244" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -15925,13 +15922,13 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E245" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F245" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G245" t="s">
         <v>19</v>
@@ -15973,12 +15970,12 @@
         <v>0.01</v>
       </c>
       <c r="X245" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -15987,13 +15984,13 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E246" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F246" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G246" t="s">
         <v>19</v>
@@ -16035,12 +16032,12 @@
         <v>0.01</v>
       </c>
       <c r="X246" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -16049,13 +16046,13 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E247" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F247" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G247" t="s">
         <v>19</v>
@@ -16097,12 +16094,12 @@
         <v>0.01</v>
       </c>
       <c r="X247" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -16111,13 +16108,13 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E248" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F248" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G248" t="s">
         <v>19</v>
@@ -16159,12 +16156,12 @@
         <v>0.01</v>
       </c>
       <c r="X248" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -16173,13 +16170,13 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E249" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G249" t="s">
         <v>19</v>
@@ -16221,12 +16218,12 @@
         <v>0.01</v>
       </c>
       <c r="X249" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -16235,13 +16232,13 @@
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E250" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F250" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G250" t="s">
         <v>19</v>
@@ -16283,12 +16280,12 @@
         <v>0.01</v>
       </c>
       <c r="X250" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -16297,13 +16294,13 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E251" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F251" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G251" t="s">
         <v>19</v>
@@ -16345,27 +16342,27 @@
         <v>0.01</v>
       </c>
       <c r="X251" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
         <v>286</v>
       </c>
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" t="s">
-        <v>15</v>
-      </c>
-      <c r="D252" t="s">
-        <v>251</v>
-      </c>
       <c r="E252" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F252" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
@@ -16407,89 +16404,89 @@
         <v>0.01</v>
       </c>
       <c r="X252" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>271</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" t="s">
+        <v>272</v>
+      </c>
+      <c r="E253" t="s">
+        <v>273</v>
+      </c>
+      <c r="F253" t="s">
         <v>287</v>
       </c>
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" t="s">
-        <v>15</v>
-      </c>
-      <c r="D253" t="s">
-        <v>288</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="G253" t="s">
+        <v>19</v>
+      </c>
+      <c r="L253" t="s">
+        <v>20</v>
+      </c>
+      <c r="M253">
+        <v>0.03</v>
+      </c>
+      <c r="N253">
+        <v>0.03</v>
+      </c>
+      <c r="O253">
+        <v>0.03</v>
+      </c>
+      <c r="P253">
+        <v>0.03</v>
+      </c>
+      <c r="Q253">
+        <v>0.03</v>
+      </c>
+      <c r="R253">
+        <v>0.03</v>
+      </c>
+      <c r="S253">
+        <v>0.03</v>
+      </c>
+      <c r="T253">
+        <v>0.03</v>
+      </c>
+      <c r="U253">
+        <v>0.03</v>
+      </c>
+      <c r="V253">
+        <v>0.03</v>
+      </c>
+      <c r="W253">
+        <v>0.03</v>
+      </c>
+      <c r="X253" t="s">
         <v>275</v>
-      </c>
-      <c r="F253" t="s">
-        <v>276</v>
-      </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
-      <c r="L253" t="s">
-        <v>20</v>
-      </c>
-      <c r="M253">
-        <v>0.01</v>
-      </c>
-      <c r="N253">
-        <v>0.01</v>
-      </c>
-      <c r="O253">
-        <v>0.01</v>
-      </c>
-      <c r="P253">
-        <v>0.01</v>
-      </c>
-      <c r="Q253">
-        <v>0.01</v>
-      </c>
-      <c r="R253">
-        <v>0.01</v>
-      </c>
-      <c r="S253">
-        <v>0.01</v>
-      </c>
-      <c r="T253">
-        <v>0.01</v>
-      </c>
-      <c r="U253">
-        <v>0.01</v>
-      </c>
-      <c r="V253">
-        <v>0.01</v>
-      </c>
-      <c r="W253">
-        <v>0.01</v>
-      </c>
-      <c r="X253" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>276</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" t="s">
         <v>273</v>
       </c>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-      <c r="C254" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" t="s">
-        <v>274</v>
-      </c>
-      <c r="E254" t="s">
-        <v>275</v>
-      </c>
       <c r="F254" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G254" t="s">
         <v>19</v>
@@ -16531,12 +16528,12 @@
         <v>0.03</v>
       </c>
       <c r="X254" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -16545,13 +16542,13 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E255" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F255" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G255" t="s">
         <v>19</v>
@@ -16593,12 +16590,12 @@
         <v>0.03</v>
       </c>
       <c r="X255" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -16607,13 +16604,13 @@
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E256" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F256" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G256" t="s">
         <v>19</v>
@@ -16655,12 +16652,12 @@
         <v>0.03</v>
       </c>
       <c r="X256" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -16669,13 +16666,13 @@
         <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E257" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F257" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G257" t="s">
         <v>19</v>
@@ -16717,12 +16714,12 @@
         <v>0.03</v>
       </c>
       <c r="X257" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -16731,13 +16728,13 @@
         <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E258" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F258" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G258" t="s">
         <v>19</v>
@@ -16779,12 +16776,12 @@
         <v>0.03</v>
       </c>
       <c r="X258" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -16793,13 +16790,13 @@
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E259" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F259" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G259" t="s">
         <v>19</v>
@@ -16841,12 +16838,12 @@
         <v>0.03</v>
       </c>
       <c r="X259" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -16855,13 +16852,13 @@
         <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E260" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F260" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G260" t="s">
         <v>19</v>
@@ -16903,12 +16900,12 @@
         <v>0.03</v>
       </c>
       <c r="X260" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -16917,13 +16914,13 @@
         <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E261" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F261" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G261" t="s">
         <v>19</v>
@@ -16965,12 +16962,12 @@
         <v>0.03</v>
       </c>
       <c r="X261" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -16979,13 +16976,13 @@
         <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E262" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F262" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G262" t="s">
         <v>19</v>
@@ -17027,27 +17024,27 @@
         <v>0.03</v>
       </c>
       <c r="X262" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>285</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
         <v>286</v>
       </c>
-      <c r="B263" t="s">
-        <v>5</v>
-      </c>
-      <c r="C263" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" t="s">
-        <v>251</v>
-      </c>
       <c r="E263" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G263" t="s">
         <v>19</v>
@@ -17089,69 +17086,7 @@
         <v>0.03</v>
       </c>
       <c r="X263" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>287</v>
-      </c>
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-      <c r="C264" t="s">
-        <v>15</v>
-      </c>
-      <c r="D264" t="s">
-        <v>288</v>
-      </c>
-      <c r="E264" t="s">
         <v>275</v>
-      </c>
-      <c r="F264" t="s">
-        <v>289</v>
-      </c>
-      <c r="G264" t="s">
-        <v>19</v>
-      </c>
-      <c r="L264" t="s">
-        <v>20</v>
-      </c>
-      <c r="M264">
-        <v>0.03</v>
-      </c>
-      <c r="N264">
-        <v>0.03</v>
-      </c>
-      <c r="O264">
-        <v>0.03</v>
-      </c>
-      <c r="P264">
-        <v>0.03</v>
-      </c>
-      <c r="Q264">
-        <v>0.03</v>
-      </c>
-      <c r="R264">
-        <v>0.03</v>
-      </c>
-      <c r="S264">
-        <v>0.03</v>
-      </c>
-      <c r="T264">
-        <v>0.03</v>
-      </c>
-      <c r="U264">
-        <v>0.03</v>
-      </c>
-      <c r="V264">
-        <v>0.03</v>
-      </c>
-      <c r="W264">
-        <v>0.03</v>
-      </c>
-      <c r="X264" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
